--- a/excel/TestActions.xlsx
+++ b/excel/TestActions.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Objects" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -40,13 +42,13 @@
     <t>screenshot</t>
   </si>
   <si>
-    <t>NumericValue</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -394,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -430,9 +432,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -441,14 +441,48 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/TestActions.xlsx
+++ b/excel/TestActions.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="prueba" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters" sheetId="2" r:id="rId2"/>
     <sheet name="Objects" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Step</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>hola</t>
+  </si>
+  <si>
+    <t>scriptexe</t>
+  </si>
+  <si>
+    <t>Logindavid</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +456,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestActions.xlsx
+++ b/excel/TestActions.xlsx
@@ -54,7 +54,7 @@
     <t>scriptexe</t>
   </si>
   <si>
-    <t>Logindavid</t>
+    <t>Login</t>
   </si>
 </sst>
 </file>
